--- a/biology/Zoologie/Hirondelle_isabelline/Hirondelle_isabelline.xlsx
+++ b/biology/Zoologie/Hirondelle_isabelline/Hirondelle_isabelline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ptyonoprogne fuligula
 L'Hirondelle isabelline (Ptyonoprogne fuligula) est une espèce de passereaux de la famille des Hirundinidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est répandu en Afrique subsaharienne (rare en Afrique centrale).
 </t>
@@ -543,9 +557,11 @@
           <t>Taxinomie et systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le Congrès ornithologique international[1] et Alan P. Peterson[2] il existe six sous-espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le Congrès ornithologique international et Alan P. Peterson il existe six sous-espèces :
 Ptyonoprogne fuligula anderssoni (Sharpe &amp; Wyatt, 1887) ;
 Ptyonoprogne fuligula bansoensis (Bannerman, 1923) ;
 Ptyonoprogne fuligula fuligula (Lichtenstein, 1842) ;
